--- a/Data/ClimateActionTracker/CAT-Decarbonisation-Indicators.Descriptions.Sources.220509 (1).xlsx
+++ b/Data/ClimateActionTracker/CAT-Decarbonisation-Indicators.Descriptions.Sources.220509 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuditHecke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dc/Documents/2022HS5_ZZBU6507_Data_Viz_Comms/A3_Portfolio/Data/ClimateActionTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD1D670-5800-4ADE-BB69-7A79D3811AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAF98E9-6E2A-D04D-9C3C-5A72ADE3A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="848" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="0" windowWidth="34400" windowHeight="28800" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="45" r:id="rId1"/>
@@ -24,6 +24,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3061,10 +3072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -3636,10 +3647,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0">
@@ -3762,7 +3773,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="39" builtinId="10" hidden="1" customBuiltin="1"/>
     <cellStyle name="Output" xfId="40" builtinId="21" hidden="1" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="50" builtinId="5" hidden="1"/>
+    <cellStyle name="Per cent" xfId="50" builtinId="5" hidden="1"/>
     <cellStyle name="TableCell3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="TableHeader1" xfId="44" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Title" xfId="41" builtinId="15" hidden="1" customBuiltin="1"/>
@@ -4232,23 +4243,23 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:21" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:21" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>36</v>
       </c>
@@ -4272,8 +4283,8 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:21" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:21" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
@@ -4298,7 +4309,7 @@
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
     </row>
-    <row r="10" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -4319,7 +4330,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="2:21" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
@@ -4344,7 +4355,7 @@
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -4365,7 +4376,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="2:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
@@ -4390,7 +4401,7 @@
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
     </row>
-    <row r="14" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6"/>
       <c r="D14" s="15"/>
       <c r="E14" s="12"/>
@@ -4411,7 +4422,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="2:21" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6"/>
       <c r="D15" s="28" t="s">
         <v>343</v>
@@ -4434,7 +4445,7 @@
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -4455,7 +4466,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="18" spans="2:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
@@ -4479,46 +4490,46 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="10" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C28" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C30" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C32" s="3" t="s">
         <v>697</v>
       </c>
@@ -4538,28 +4549,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <tabColor rgb="FF127DA4"/>
   </sheetPr>
   <dimension ref="A2:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>118</v>
       </c>
@@ -4570,7 +4581,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
@@ -4612,7 +4623,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
@@ -4634,7 +4645,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
@@ -4656,7 +4667,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
@@ -4678,7 +4689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="228" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
@@ -4700,7 +4711,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9" t="s">
@@ -4722,7 +4733,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="17" customFormat="1" ht="216" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="9" t="s">
@@ -4744,7 +4755,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="9" t="s">
@@ -4766,7 +4777,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="9" t="s">
@@ -4788,7 +4799,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="18" t="s">
@@ -4810,7 +4821,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="18" t="s">
@@ -4832,7 +4843,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="18" t="s">
@@ -4852,7 +4863,7 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="18" t="s">
@@ -4874,7 +4885,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="9" t="s">
@@ -4896,7 +4907,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="9" t="s">
@@ -4918,7 +4929,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
@@ -4940,7 +4951,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="9" t="s">
@@ -4962,7 +4973,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="17" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="9" t="s">
@@ -4984,7 +4995,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="17" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="18" t="s">
@@ -5006,7 +5017,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="9" t="s">
@@ -5028,7 +5039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
@@ -5050,7 +5061,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="240" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="9" t="s">
@@ -5072,7 +5083,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="9" t="s">
@@ -5094,7 +5105,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="9" t="s">
@@ -5116,7 +5127,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="9" t="s">
@@ -5138,7 +5149,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="156" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="9" t="s">
@@ -5160,7 +5171,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="168" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="9" t="s">
@@ -5182,7 +5193,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="18" t="s">
@@ -5204,7 +5215,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="9" t="s">
@@ -5226,7 +5237,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="16" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="16" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="9" t="s">
@@ -5248,7 +5259,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="9" t="s">
@@ -5270,7 +5281,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="9" t="s">
@@ -5292,7 +5303,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="9" t="s">
@@ -5314,7 +5325,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="9" t="s">
@@ -5336,7 +5347,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="9" t="s">
@@ -5358,7 +5369,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="9" t="s">
@@ -5380,7 +5391,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="9" t="s">
@@ -5402,7 +5413,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9" t="s">
@@ -5424,7 +5435,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="9" t="s">
@@ -5446,7 +5457,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="9" t="s">
@@ -5468,7 +5479,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="9" t="s">
@@ -5490,7 +5501,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C46" s="9" t="s">
         <v>21</v>
       </c>
@@ -5510,7 +5521,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="C47" s="9" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C48" s="9" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C49" s="9" t="s">
         <v>21</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C50" s="9" t="s">
         <v>89</v>
       </c>
@@ -5590,7 +5601,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C51" s="9" t="s">
         <v>89</v>
       </c>
@@ -5610,7 +5621,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C52" s="18" t="s">
         <v>658</v>
       </c>
@@ -5630,7 +5641,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C53" s="18" t="s">
         <v>658</v>
       </c>
@@ -5650,7 +5661,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C54" s="9" t="s">
         <v>60</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C55" s="9" t="s">
         <v>60</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C56" s="9" t="s">
         <v>55</v>
       </c>
@@ -5710,7 +5721,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C57" s="18" t="s">
         <v>55</v>
       </c>
@@ -5730,7 +5741,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C58" s="18" t="s">
         <v>55</v>
       </c>
@@ -5750,7 +5761,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="9" t="s">
@@ -5772,7 +5783,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="9" t="s">
@@ -5794,7 +5805,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C61" s="9" t="s">
         <v>55</v>
       </c>
@@ -5814,7 +5825,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C62" s="9" t="s">
         <v>55</v>
       </c>
@@ -5834,7 +5845,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="17" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C63" s="9" t="s">
         <v>55</v>
       </c>
@@ -5854,7 +5865,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="17" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="17" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C64" s="9" t="s">
         <v>55</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C65" s="9" t="s">
         <v>33</v>
       </c>
@@ -5894,7 +5905,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="C66" s="9" t="s">
         <v>33</v>
       </c>
@@ -5915,6 +5926,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C4:H66" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="% renewables"/>
+        <filter val="GJ (final) / cap"/>
+        <filter val="tCO2e / cap"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5927,24 +5947,24 @@
   </sheetPr>
   <dimension ref="A1:M468"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H373" sqref="H373"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H467" sqref="A1:M468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="106.1640625" customWidth="1"/>
+    <col min="8" max="8" width="106.25" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5954,7 +5974,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
         <v>116</v>
@@ -5967,7 +5987,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5977,7 +5997,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -6001,7 +6021,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="C5" s="9" t="s">
         <v>41</v>
@@ -6023,7 +6043,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="C6" s="9" t="s">
         <v>41</v>
@@ -6049,7 +6069,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="C7" s="9" t="s">
         <v>71</v>
@@ -6073,7 +6093,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="C8" s="9" t="s">
         <v>71</v>
@@ -6097,7 +6117,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="C9" s="9" t="s">
         <v>71</v>
@@ -6123,7 +6143,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="C10" s="9" t="s">
         <v>88</v>
@@ -6147,7 +6167,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="C11" s="9" t="s">
         <v>88</v>
@@ -6171,7 +6191,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="C12" s="9" t="s">
         <v>95</v>
@@ -6197,7 +6217,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="C13" s="9" t="s">
         <v>95</v>
@@ -6223,7 +6243,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="C14" s="9" t="s">
         <v>100</v>
@@ -6247,7 +6267,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="C15" s="9" t="s">
         <v>100</v>
@@ -6271,7 +6291,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="C16" s="9" t="s">
         <v>108</v>
@@ -6295,7 +6315,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="C17" s="9" t="s">
         <v>108</v>
@@ -6319,7 +6339,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="C18" s="9" t="s">
         <v>518</v>
@@ -6343,7 +6363,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="C19" s="9" t="s">
         <v>518</v>
@@ -6369,7 +6389,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="C20" s="9" t="s">
         <v>112</v>
@@ -6393,7 +6413,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="C21" s="9" t="s">
         <v>112</v>
@@ -6417,7 +6437,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="C22" s="9" t="s">
         <v>113</v>
@@ -6441,7 +6461,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="C23" s="9" t="s">
         <v>113</v>
@@ -6465,7 +6485,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="168.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>342</v>
@@ -6489,7 +6509,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="168.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>342</v>
@@ -6513,7 +6533,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>71</v>
@@ -6537,7 +6557,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>71</v>
@@ -6561,7 +6581,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>71</v>
@@ -6585,7 +6605,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="C29" s="9" t="s">
         <v>88</v>
@@ -6609,7 +6629,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="C30" s="9" t="s">
         <v>88</v>
@@ -6633,7 +6653,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="146.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="156" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="C31" s="9" t="s">
         <v>88</v>
@@ -6657,7 +6677,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="C32" s="9" t="s">
         <v>95</v>
@@ -6681,7 +6701,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="C33" s="9" t="s">
         <v>95</v>
@@ -6705,7 +6725,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="C34" s="9" t="s">
         <v>95</v>
@@ -6729,7 +6749,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="9" t="s">
         <v>95</v>
@@ -6753,7 +6773,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="9" t="s">
         <v>95</v>
@@ -6777,7 +6797,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="9" t="s">
         <v>328</v>
@@ -6801,7 +6821,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="C38" s="9" t="s">
         <v>444</v>
@@ -6825,7 +6845,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="C39" s="9" t="s">
         <v>444</v>
@@ -6849,7 +6869,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="C40" s="9" t="s">
         <v>444</v>
@@ -6873,7 +6893,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="C41" s="9" t="s">
         <v>444</v>
@@ -6897,7 +6917,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="C42" s="9" t="s">
         <v>444</v>
@@ -6921,7 +6941,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="C43" s="9" t="s">
         <v>99</v>
@@ -6945,7 +6965,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="C44" s="9" t="s">
         <v>99</v>
@@ -6969,7 +6989,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="C45" s="9" t="s">
         <v>107</v>
@@ -6993,7 +7013,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="C46" s="9" t="s">
         <v>108</v>
@@ -7017,7 +7037,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="C47" s="9" t="s">
         <v>518</v>
@@ -7041,7 +7061,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="C48" s="9" t="s">
         <v>518</v>
@@ -7065,7 +7085,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="C49" s="9" t="s">
         <v>112</v>
@@ -7089,7 +7109,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="C50" s="9" t="s">
         <v>112</v>
@@ -7113,7 +7133,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="C51" s="9" t="s">
         <v>342</v>
@@ -7137,7 +7157,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="C52" s="9" t="s">
         <v>342</v>
@@ -7161,7 +7181,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="C53" s="9" t="s">
         <v>342</v>
@@ -7185,7 +7205,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="C54" s="9" t="s">
         <v>342</v>
@@ -7209,7 +7229,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="C55" s="9" t="s">
         <v>342</v>
@@ -7233,7 +7253,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="C56" s="9" t="s">
         <v>41</v>
@@ -7259,7 +7279,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="C57" s="9" t="s">
         <v>41</v>
@@ -7285,7 +7305,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="C58" s="9" t="s">
         <v>41</v>
@@ -7309,7 +7329,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="C59" s="9" t="s">
         <v>41</v>
@@ -7333,7 +7353,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="C60" s="9" t="s">
         <v>71</v>
@@ -7357,7 +7377,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="C61" s="9" t="s">
         <v>71</v>
@@ -7381,7 +7401,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="C62" s="9" t="s">
         <v>71</v>
@@ -7405,7 +7425,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="C63" s="9" t="s">
         <v>71</v>
@@ -7429,7 +7449,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="C64" s="9" t="s">
         <v>88</v>
@@ -7455,7 +7475,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="C65" s="9" t="s">
         <v>88</v>
@@ -7481,7 +7501,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="C66" s="9" t="s">
         <v>88</v>
@@ -7507,7 +7527,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="C67" s="9" t="s">
         <v>88</v>
@@ -7533,7 +7553,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="C68" s="9" t="s">
         <v>318</v>
@@ -7557,7 +7577,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="C69" s="9" t="s">
         <v>318</v>
@@ -7581,7 +7601,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="C70" s="9" t="s">
         <v>318</v>
@@ -7605,7 +7625,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="C71" s="9" t="s">
         <v>95</v>
@@ -7631,7 +7651,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="C72" s="9" t="s">
         <v>95</v>
@@ -7655,7 +7675,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="C73" s="9" t="s">
         <v>95</v>
@@ -7679,7 +7699,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="C74" s="9" t="s">
         <v>95</v>
@@ -7705,7 +7725,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="C75" s="9" t="s">
         <v>95</v>
@@ -7731,7 +7751,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="C76" s="9" t="s">
         <v>95</v>
@@ -7757,7 +7777,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="C77" s="9" t="s">
         <v>95</v>
@@ -7783,7 +7803,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="C78" s="9" t="s">
         <v>328</v>
@@ -7807,7 +7827,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="C79" s="9" t="s">
         <v>328</v>
@@ -7831,7 +7851,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="C80" s="9" t="s">
         <v>328</v>
@@ -7855,7 +7875,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="C81" s="9" t="s">
         <v>328</v>
@@ -7879,7 +7899,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="C82" s="9" t="s">
         <v>328</v>
@@ -7903,7 +7923,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="C83" s="9" t="s">
         <v>328</v>
@@ -7927,7 +7947,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="C84" s="9" t="s">
         <v>328</v>
@@ -7951,7 +7971,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="C85" s="9" t="s">
         <v>328</v>
@@ -7975,7 +7995,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="C86" s="9" t="s">
         <v>444</v>
@@ -7999,7 +8019,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="C87" s="9" t="s">
         <v>444</v>
@@ -8023,7 +8043,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="C88" s="9" t="s">
         <v>444</v>
@@ -8047,7 +8067,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="C89" s="9" t="s">
         <v>444</v>
@@ -8071,7 +8091,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="C90" s="9" t="s">
         <v>444</v>
@@ -8095,7 +8115,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="C91" s="9" t="s">
         <v>99</v>
@@ -8119,7 +8139,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="C92" s="9" t="s">
         <v>99</v>
@@ -8143,7 +8163,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="C93" s="9" t="s">
         <v>99</v>
@@ -8167,7 +8187,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="C94" s="9" t="s">
         <v>99</v>
@@ -8191,7 +8211,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="C95" s="9" t="s">
         <v>100</v>
@@ -8215,7 +8235,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="C96" s="9" t="s">
         <v>100</v>
@@ -8239,7 +8259,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="C97" s="9" t="s">
         <v>100</v>
@@ -8263,7 +8283,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="C98" s="9" t="s">
         <v>100</v>
@@ -8287,7 +8307,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="C99" s="9" t="s">
         <v>107</v>
@@ -8311,7 +8331,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="C100" s="9" t="s">
         <v>107</v>
@@ -8335,7 +8355,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="C101" s="9" t="s">
         <v>107</v>
@@ -8359,7 +8379,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="C102" s="9" t="s">
         <v>107</v>
@@ -8383,7 +8403,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="C103" s="9" t="s">
         <v>108</v>
@@ -8409,7 +8429,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="C104" s="9" t="s">
         <v>108</v>
@@ -8433,7 +8453,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="C105" s="9" t="s">
         <v>108</v>
@@ -8457,7 +8477,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="C106" s="9" t="s">
         <v>108</v>
@@ -8481,7 +8501,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="C107" s="9" t="s">
         <v>332</v>
@@ -8505,7 +8525,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="C108" s="9" t="s">
         <v>518</v>
@@ -8529,7 +8549,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="C109" s="9" t="s">
         <v>518</v>
@@ -8555,7 +8575,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="C110" s="9" t="s">
         <v>518</v>
@@ -8581,7 +8601,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="C111" s="9" t="s">
         <v>518</v>
@@ -8607,7 +8627,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="C112" s="9" t="s">
         <v>112</v>
@@ -8631,7 +8651,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="C113" s="9" t="s">
         <v>112</v>
@@ -8655,7 +8675,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="C114" s="9" t="s">
         <v>112</v>
@@ -8679,7 +8699,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="C115" s="9" t="s">
         <v>112</v>
@@ -8703,7 +8723,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="C116" s="9" t="s">
         <v>113</v>
@@ -8727,7 +8747,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="C117" s="9" t="s">
         <v>113</v>
@@ -8751,7 +8771,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="C118" s="9" t="s">
         <v>342</v>
@@ -8774,7 +8794,7 @@
       <c r="I118" s="9"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="C119" s="9" t="s">
         <v>342</v>
@@ -8797,7 +8817,7 @@
       <c r="I119" s="9"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="C120" s="9" t="s">
         <v>342</v>
@@ -8820,7 +8840,7 @@
       <c r="I120" s="9"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="C121" s="9" t="s">
         <v>342</v>
@@ -8843,7 +8863,7 @@
       <c r="I121" s="9"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="C122" s="9" t="s">
         <v>342</v>
@@ -8866,7 +8886,7 @@
       <c r="I122" s="9"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="C123" s="9" t="s">
         <v>342</v>
@@ -8889,7 +8909,7 @@
       <c r="I123" s="9"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="C124" s="9" t="s">
         <v>342</v>
@@ -8914,7 +8934,7 @@
       </c>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="C125" s="9" t="s">
         <v>342</v>
@@ -8937,7 +8957,7 @@
       <c r="I125" s="9"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="C126" s="9" t="s">
         <v>342</v>
@@ -8960,7 +8980,7 @@
       <c r="I126" s="9"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="C127" s="9" t="s">
         <v>41</v>
@@ -8985,7 +9005,7 @@
       </c>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="C128" s="9" t="s">
         <v>71</v>
@@ -9010,7 +9030,7 @@
       </c>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="C129" s="9" t="s">
         <v>88</v>
@@ -9033,7 +9053,7 @@
       <c r="I129" s="9"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="C130" s="9" t="s">
         <v>100</v>
@@ -9056,7 +9076,7 @@
       <c r="I130" s="9"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="C131" s="9" t="s">
         <v>107</v>
@@ -9079,7 +9099,7 @@
       <c r="I131" s="9"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="C132" s="9" t="s">
         <v>108</v>
@@ -9102,7 +9122,7 @@
       <c r="I132" s="9"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="C133" s="9" t="s">
         <v>518</v>
@@ -9127,7 +9147,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="C134" s="9" t="s">
         <v>112</v>
@@ -9152,7 +9172,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="C135" s="9" t="s">
         <v>342</v>
@@ -9175,7 +9195,7 @@
       <c r="I135" s="9"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="C136" s="9" t="s">
         <v>71</v>
@@ -9200,7 +9220,7 @@
       </c>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="C137" s="9" t="s">
         <v>71</v>
@@ -9225,7 +9245,7 @@
       </c>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="C138" s="9" t="s">
         <v>95</v>
@@ -9248,7 +9268,7 @@
       <c r="I138" s="9"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="C139" s="9" t="s">
         <v>95</v>
@@ -9271,7 +9291,7 @@
       <c r="I139" s="9"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="C140" s="9" t="s">
         <v>444</v>
@@ -9294,7 +9314,7 @@
       <c r="I140" s="9"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="C141" s="9" t="s">
         <v>444</v>
@@ -9317,7 +9337,7 @@
       <c r="I141" s="9"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="C142" s="9" t="s">
         <v>99</v>
@@ -9340,7 +9360,7 @@
       <c r="I142" s="9"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="C143" s="9" t="s">
         <v>107</v>
@@ -9363,7 +9383,7 @@
       <c r="I143" s="9"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="C144" s="9" t="s">
         <v>444</v>
@@ -9386,7 +9406,7 @@
       <c r="I144" s="9"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="C145" s="9" t="s">
         <v>342</v>
@@ -9409,7 +9429,7 @@
       <c r="I145" s="9"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="C146" s="9" t="s">
         <v>71</v>
@@ -9434,7 +9454,7 @@
       </c>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="C147" s="9" t="s">
         <v>95</v>
@@ -9459,7 +9479,7 @@
       </c>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="C148" s="9" t="s">
         <v>95</v>
@@ -9484,7 +9504,7 @@
       </c>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="C149" s="9" t="s">
         <v>444</v>
@@ -9507,7 +9527,7 @@
       <c r="I149" s="9"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="C150" s="9" t="s">
         <v>444</v>
@@ -9532,7 +9552,7 @@
       </c>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="C151" s="9" t="s">
         <v>99</v>
@@ -9555,7 +9575,7 @@
       <c r="I151" s="9"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="C152" s="9" t="s">
         <v>107</v>
@@ -9578,7 +9598,7 @@
       <c r="I152" s="9"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="C153" s="9" t="s">
         <v>444</v>
@@ -9601,7 +9621,7 @@
       <c r="I153" s="9"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="C154" s="9" t="s">
         <v>41</v>
@@ -9624,7 +9644,7 @@
       <c r="I154" s="9"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="C155" s="9" t="s">
         <v>41</v>
@@ -9647,7 +9667,7 @@
       <c r="I155" s="9"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="C156" s="9" t="s">
         <v>41</v>
@@ -9672,7 +9692,7 @@
       </c>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="C157" s="9" t="s">
         <v>71</v>
@@ -9695,7 +9715,7 @@
       <c r="I157" s="9"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="C158" s="9" t="s">
         <v>71</v>
@@ -9718,7 +9738,7 @@
       <c r="I158" s="9"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="C159" s="9" t="s">
         <v>71</v>
@@ -9741,7 +9761,7 @@
       <c r="I159" s="9"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="C160" s="9" t="s">
         <v>71</v>
@@ -9764,7 +9784,7 @@
       <c r="I160" s="9"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="C161" s="9" t="s">
         <v>71</v>
@@ -9787,7 +9807,7 @@
       <c r="I161" s="9"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="C162" s="9" t="s">
         <v>71</v>
@@ -9810,7 +9830,7 @@
       <c r="I162" s="9"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="C163" s="9" t="s">
         <v>71</v>
@@ -9833,7 +9853,7 @@
       <c r="I163" s="9"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="C164" s="9" t="s">
         <v>71</v>
@@ -9856,7 +9876,7 @@
       <c r="I164" s="9"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="C165" s="9" t="s">
         <v>71</v>
@@ -9879,7 +9899,7 @@
       <c r="I165" s="9"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="C166" s="9" t="s">
         <v>71</v>
@@ -9902,7 +9922,7 @@
       <c r="I166" s="9"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="C167" s="9" t="s">
         <v>88</v>
@@ -9925,7 +9945,7 @@
       <c r="I167" s="9"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="C168" s="9" t="s">
         <v>88</v>
@@ -9948,7 +9968,7 @@
       <c r="I168" s="9"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="C169" s="9" t="s">
         <v>88</v>
@@ -9971,7 +9991,7 @@
       <c r="I169" s="9"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="C170" s="9" t="s">
         <v>88</v>
@@ -9994,7 +10014,7 @@
       <c r="I170" s="9"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="C171" s="9" t="s">
         <v>88</v>
@@ -10017,7 +10037,7 @@
       <c r="I171" s="9"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="C172" s="9" t="s">
         <v>88</v>
@@ -10040,7 +10060,7 @@
       <c r="I172" s="9"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="C173" s="9" t="s">
         <v>88</v>
@@ -10063,7 +10083,7 @@
       <c r="I173" s="9"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="1:13" ht="146.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="156" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="C174" s="9" t="s">
         <v>88</v>
@@ -10086,7 +10106,7 @@
       <c r="I174" s="9"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="C175" s="9" t="s">
         <v>88</v>
@@ -10109,7 +10129,7 @@
       <c r="I175" s="9"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="C176" s="9" t="s">
         <v>88</v>
@@ -10132,7 +10152,7 @@
       <c r="I176" s="9"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="C177" s="9" t="s">
         <v>318</v>
@@ -10155,7 +10175,7 @@
       <c r="I177" s="9"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="C178" s="9" t="s">
         <v>318</v>
@@ -10178,7 +10198,7 @@
       <c r="I178" s="9"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="C179" s="9" t="s">
         <v>318</v>
@@ -10201,7 +10221,7 @@
       <c r="I179" s="9"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="C180" s="9" t="s">
         <v>318</v>
@@ -10224,7 +10244,7 @@
       <c r="I180" s="9"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="C181" s="9" t="s">
         <v>318</v>
@@ -10247,7 +10267,7 @@
       <c r="I181" s="9"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="C182" s="9" t="s">
         <v>318</v>
@@ -10270,7 +10290,7 @@
       <c r="I182" s="9"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="C183" s="9" t="s">
         <v>318</v>
@@ -10293,7 +10313,7 @@
       <c r="I183" s="9"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="C184" s="9" t="s">
         <v>318</v>
@@ -10316,7 +10336,7 @@
       <c r="I184" s="9"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="C185" s="9" t="s">
         <v>318</v>
@@ -10339,7 +10359,7 @@
       <c r="I185" s="9"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="C186" s="9" t="s">
         <v>318</v>
@@ -10362,7 +10382,7 @@
       <c r="I186" s="9"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="C187" s="9" t="s">
         <v>95</v>
@@ -10387,7 +10407,7 @@
       </c>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="C188" s="9" t="s">
         <v>95</v>
@@ -10410,7 +10430,7 @@
       <c r="I188" s="9"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="C189" s="9" t="s">
         <v>95</v>
@@ -10433,7 +10453,7 @@
       <c r="I189" s="9"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="C190" s="9" t="s">
         <v>95</v>
@@ -10456,7 +10476,7 @@
       <c r="I190" s="9"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="C191" s="9" t="s">
         <v>95</v>
@@ -10479,7 +10499,7 @@
       <c r="I191" s="9"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="C192" s="9" t="s">
         <v>95</v>
@@ -10502,7 +10522,7 @@
       <c r="I192" s="9"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="C193" s="9" t="s">
         <v>95</v>
@@ -10527,7 +10547,7 @@
       </c>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="C194" s="9" t="s">
         <v>95</v>
@@ -10552,7 +10572,7 @@
       </c>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="C195" s="9" t="s">
         <v>95</v>
@@ -10575,7 +10595,7 @@
       <c r="I195" s="9"/>
       <c r="M195" s="1"/>
     </row>
-    <row r="196" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="C196" s="9" t="s">
         <v>95</v>
@@ -10600,7 +10620,7 @@
       </c>
       <c r="M196" s="1"/>
     </row>
-    <row r="197" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="C197" s="9" t="s">
         <v>95</v>
@@ -10625,7 +10645,7 @@
       </c>
       <c r="M197" s="1"/>
     </row>
-    <row r="198" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="C198" s="9" t="s">
         <v>95</v>
@@ -10650,7 +10670,7 @@
       </c>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="C199" s="9" t="s">
         <v>95</v>
@@ -10673,7 +10693,7 @@
       <c r="I199" s="9"/>
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="C200" s="9" t="s">
         <v>95</v>
@@ -10696,7 +10716,7 @@
       <c r="I200" s="9"/>
       <c r="M200" s="1"/>
     </row>
-    <row r="201" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="C201" s="9" t="s">
         <v>95</v>
@@ -10719,7 +10739,7 @@
       <c r="I201" s="9"/>
       <c r="M201" s="1"/>
     </row>
-    <row r="202" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="C202" s="9" t="s">
         <v>95</v>
@@ -10744,7 +10764,7 @@
       </c>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="C203" s="9" t="s">
         <v>95</v>
@@ -10769,7 +10789,7 @@
       </c>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="C204" s="9" t="s">
         <v>95</v>
@@ -10792,7 +10812,7 @@
       <c r="I204" s="9"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="C205" s="9" t="s">
         <v>95</v>
@@ -10815,7 +10835,7 @@
       <c r="I205" s="9"/>
       <c r="M205" s="1"/>
     </row>
-    <row r="206" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="C206" s="9" t="s">
         <v>95</v>
@@ -10838,7 +10858,7 @@
       <c r="I206" s="9"/>
       <c r="M206" s="1"/>
     </row>
-    <row r="207" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="C207" s="9" t="s">
         <v>95</v>
@@ -10861,7 +10881,7 @@
       <c r="I207" s="9"/>
       <c r="M207" s="1"/>
     </row>
-    <row r="208" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="C208" s="9" t="s">
         <v>95</v>
@@ -10884,7 +10904,7 @@
       <c r="I208" s="9"/>
       <c r="M208" s="1"/>
     </row>
-    <row r="209" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
       <c r="C209" s="9" t="s">
         <v>328</v>
@@ -10907,7 +10927,7 @@
       <c r="I209" s="9"/>
       <c r="M209" s="1"/>
     </row>
-    <row r="210" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
       <c r="C210" s="9" t="s">
         <v>328</v>
@@ -10930,7 +10950,7 @@
       <c r="I210" s="9"/>
       <c r="M210" s="1"/>
     </row>
-    <row r="211" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
       <c r="C211" s="9" t="s">
         <v>328</v>
@@ -10953,7 +10973,7 @@
       <c r="I211" s="9"/>
       <c r="M211" s="1"/>
     </row>
-    <row r="212" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
       <c r="C212" s="9" t="s">
         <v>328</v>
@@ -10976,7 +10996,7 @@
       <c r="I212" s="9"/>
       <c r="M212" s="1"/>
     </row>
-    <row r="213" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
       <c r="C213" s="9" t="s">
         <v>328</v>
@@ -10999,7 +11019,7 @@
       <c r="I213" s="9"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
       <c r="C214" s="9" t="s">
         <v>328</v>
@@ -11022,7 +11042,7 @@
       <c r="I214" s="9"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
       <c r="C215" s="9" t="s">
         <v>328</v>
@@ -11045,7 +11065,7 @@
       <c r="I215" s="9"/>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
       <c r="C216" s="9" t="s">
         <v>328</v>
@@ -11068,7 +11088,7 @@
       <c r="I216" s="9"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
       <c r="C217" s="9" t="s">
         <v>328</v>
@@ -11091,7 +11111,7 @@
       <c r="I217" s="9"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
       <c r="C218" s="9" t="s">
         <v>328</v>
@@ -11114,7 +11134,7 @@
       <c r="I218" s="9"/>
       <c r="M218" s="1"/>
     </row>
-    <row r="219" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
       <c r="C219" s="9" t="s">
         <v>328</v>
@@ -11137,7 +11157,7 @@
       <c r="I219" s="9"/>
       <c r="M219" s="1"/>
     </row>
-    <row r="220" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
       <c r="C220" s="9" t="s">
         <v>328</v>
@@ -11160,7 +11180,7 @@
       <c r="I220" s="9"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
       <c r="C221" s="9" t="s">
         <v>444</v>
@@ -11183,7 +11203,7 @@
       <c r="I221" s="9"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
       <c r="C222" s="9" t="s">
         <v>444</v>
@@ -11206,7 +11226,7 @@
       <c r="I222" s="9"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
       <c r="C223" s="9" t="s">
         <v>444</v>
@@ -11229,7 +11249,7 @@
       <c r="I223" s="9"/>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
       <c r="C224" s="9" t="s">
         <v>444</v>
@@ -11252,7 +11272,7 @@
       <c r="I224" s="9"/>
       <c r="M224" s="1"/>
     </row>
-    <row r="225" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
       <c r="C225" s="9" t="s">
         <v>444</v>
@@ -11275,7 +11295,7 @@
       <c r="I225" s="9"/>
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
       <c r="C226" s="9" t="s">
         <v>444</v>
@@ -11298,7 +11318,7 @@
       <c r="I226" s="9"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
       <c r="C227" s="9" t="s">
         <v>444</v>
@@ -11321,7 +11341,7 @@
       <c r="I227" s="9"/>
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
       <c r="C228" s="9" t="s">
         <v>444</v>
@@ -11344,7 +11364,7 @@
       <c r="I228" s="9"/>
       <c r="M228" s="1"/>
     </row>
-    <row r="229" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
       <c r="C229" s="9" t="s">
         <v>444</v>
@@ -11367,7 +11387,7 @@
       <c r="I229" s="9"/>
       <c r="M229" s="1"/>
     </row>
-    <row r="230" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
       <c r="C230" s="9" t="s">
         <v>444</v>
@@ -11390,7 +11410,7 @@
       <c r="I230" s="9"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
       <c r="C231" s="9" t="s">
         <v>444</v>
@@ -11413,7 +11433,7 @@
       <c r="I231" s="9"/>
       <c r="M231" s="1"/>
     </row>
-    <row r="232" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
       <c r="C232" s="9" t="s">
         <v>444</v>
@@ -11436,7 +11456,7 @@
       <c r="I232" s="9"/>
       <c r="M232" s="1"/>
     </row>
-    <row r="233" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
       <c r="C233" s="9" t="s">
         <v>444</v>
@@ -11459,7 +11479,7 @@
       <c r="I233" s="9"/>
       <c r="M233" s="1"/>
     </row>
-    <row r="234" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
       <c r="C234" s="9" t="s">
         <v>444</v>
@@ -11482,7 +11502,7 @@
       <c r="I234" s="9"/>
       <c r="M234" s="1"/>
     </row>
-    <row r="235" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
       <c r="C235" s="9" t="s">
         <v>444</v>
@@ -11505,7 +11525,7 @@
       <c r="I235" s="9"/>
       <c r="M235" s="1"/>
     </row>
-    <row r="236" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
       <c r="C236" s="9" t="s">
         <v>444</v>
@@ -11528,7 +11548,7 @@
       <c r="I236" s="9"/>
       <c r="M236" s="1"/>
     </row>
-    <row r="237" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1"/>
       <c r="C237" s="9" t="s">
         <v>444</v>
@@ -11551,7 +11571,7 @@
       <c r="I237" s="9"/>
       <c r="M237" s="1"/>
     </row>
-    <row r="238" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1"/>
       <c r="C238" s="9" t="s">
         <v>444</v>
@@ -11574,7 +11594,7 @@
       <c r="I238" s="9"/>
       <c r="M238" s="1"/>
     </row>
-    <row r="239" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
       <c r="C239" s="9" t="s">
         <v>444</v>
@@ -11597,7 +11617,7 @@
       <c r="I239" s="9"/>
       <c r="M239" s="1"/>
     </row>
-    <row r="240" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
       <c r="C240" s="9" t="s">
         <v>99</v>
@@ -11620,7 +11640,7 @@
       <c r="I240" s="9"/>
       <c r="M240" s="1"/>
     </row>
-    <row r="241" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="1"/>
       <c r="C241" s="9" t="s">
         <v>99</v>
@@ -11643,7 +11663,7 @@
       <c r="I241" s="9"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
       <c r="C242" s="9" t="s">
         <v>99</v>
@@ -11666,7 +11686,7 @@
       <c r="I242" s="9"/>
       <c r="M242" s="1"/>
     </row>
-    <row r="243" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
       <c r="C243" s="9" t="s">
         <v>99</v>
@@ -11689,7 +11709,7 @@
       <c r="I243" s="9"/>
       <c r="M243" s="1"/>
     </row>
-    <row r="244" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1"/>
       <c r="C244" s="9" t="s">
         <v>99</v>
@@ -11712,7 +11732,7 @@
       <c r="I244" s="9"/>
       <c r="M244" s="1"/>
     </row>
-    <row r="245" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
       <c r="C245" s="9" t="s">
         <v>99</v>
@@ -11735,7 +11755,7 @@
       <c r="I245" s="9"/>
       <c r="M245" s="1"/>
     </row>
-    <row r="246" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1"/>
       <c r="C246" s="9" t="s">
         <v>99</v>
@@ -11758,7 +11778,7 @@
       <c r="I246" s="9"/>
       <c r="M246" s="1"/>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
       <c r="C247" s="9" t="s">
         <v>99</v>
@@ -11781,7 +11801,7 @@
       <c r="I247" s="9"/>
       <c r="M247" s="1"/>
     </row>
-    <row r="248" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="1"/>
       <c r="C248" s="9" t="s">
         <v>99</v>
@@ -11804,7 +11824,7 @@
       <c r="I248" s="9"/>
       <c r="M248" s="1"/>
     </row>
-    <row r="249" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
       <c r="C249" s="9" t="s">
         <v>99</v>
@@ -11827,7 +11847,7 @@
       <c r="I249" s="9"/>
       <c r="M249" s="1"/>
     </row>
-    <row r="250" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="1"/>
       <c r="C250" s="9" t="s">
         <v>99</v>
@@ -11850,7 +11870,7 @@
       <c r="I250" s="9"/>
       <c r="M250" s="1"/>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="1"/>
       <c r="C251" s="9" t="s">
         <v>99</v>
@@ -11873,7 +11893,7 @@
       <c r="I251" s="9"/>
       <c r="M251" s="1"/>
     </row>
-    <row r="252" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
       <c r="C252" s="9" t="s">
         <v>100</v>
@@ -11896,7 +11916,7 @@
       <c r="I252" s="9"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
       <c r="C253" s="9" t="s">
         <v>100</v>
@@ -11919,7 +11939,7 @@
       <c r="I253" s="9"/>
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1"/>
       <c r="C254" s="9" t="s">
         <v>100</v>
@@ -11942,7 +11962,7 @@
       <c r="I254" s="9"/>
       <c r="M254" s="1"/>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1"/>
       <c r="C255" s="9" t="s">
         <v>100</v>
@@ -11965,7 +11985,7 @@
       <c r="I255" s="9"/>
       <c r="M255" s="1"/>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
       <c r="C256" s="9" t="s">
         <v>100</v>
@@ -11988,7 +12008,7 @@
       <c r="I256" s="9"/>
       <c r="M256" s="1"/>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="1"/>
       <c r="C257" s="9" t="s">
         <v>100</v>
@@ -12011,7 +12031,7 @@
       <c r="I257" s="9"/>
       <c r="M257" s="1"/>
     </row>
-    <row r="258" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
       <c r="C258" s="9" t="s">
         <v>100</v>
@@ -12034,7 +12054,7 @@
       <c r="I258" s="9"/>
       <c r="M258" s="1"/>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="1"/>
       <c r="C259" s="9" t="s">
         <v>100</v>
@@ -12057,7 +12077,7 @@
       <c r="I259" s="9"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1"/>
       <c r="C260" s="9" t="s">
         <v>100</v>
@@ -12080,7 +12100,7 @@
       <c r="I260" s="9"/>
       <c r="M260" s="1"/>
     </row>
-    <row r="261" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
       <c r="C261" s="9" t="s">
         <v>100</v>
@@ -12103,7 +12123,7 @@
       <c r="I261" s="9"/>
       <c r="M261" s="1"/>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
       <c r="C262" s="9" t="s">
         <v>107</v>
@@ -12126,7 +12146,7 @@
       <c r="I262" s="9"/>
       <c r="M262" s="1"/>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1"/>
       <c r="C263" s="9" t="s">
         <v>107</v>
@@ -12149,7 +12169,7 @@
       <c r="I263" s="9"/>
       <c r="M263" s="1"/>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1"/>
       <c r="C264" s="9" t="s">
         <v>107</v>
@@ -12172,7 +12192,7 @@
       <c r="I264" s="9"/>
       <c r="M264" s="1"/>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="1"/>
       <c r="C265" s="9" t="s">
         <v>107</v>
@@ -12195,7 +12215,7 @@
       <c r="I265" s="9"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="1"/>
       <c r="C266" s="9" t="s">
         <v>107</v>
@@ -12218,7 +12238,7 @@
       <c r="I266" s="9"/>
       <c r="M266" s="1"/>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1"/>
       <c r="C267" s="9" t="s">
         <v>107</v>
@@ -12241,7 +12261,7 @@
       <c r="I267" s="9"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="1"/>
       <c r="C268" s="9" t="s">
         <v>107</v>
@@ -12264,7 +12284,7 @@
       <c r="I268" s="9"/>
       <c r="M268" s="1"/>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
       <c r="C269" s="9" t="s">
         <v>107</v>
@@ -12287,7 +12307,7 @@
       <c r="I269" s="9"/>
       <c r="M269" s="1"/>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1"/>
       <c r="C270" s="9" t="s">
         <v>107</v>
@@ -12310,7 +12330,7 @@
       <c r="I270" s="9"/>
       <c r="M270" s="1"/>
     </row>
-    <row r="271" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1"/>
       <c r="C271" s="9" t="s">
         <v>107</v>
@@ -12333,7 +12353,7 @@
       <c r="I271" s="9"/>
       <c r="M271" s="1"/>
     </row>
-    <row r="272" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
       <c r="C272" s="9" t="s">
         <v>329</v>
@@ -12356,7 +12376,7 @@
       <c r="I272" s="9"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="1"/>
       <c r="C273" s="9" t="s">
         <v>329</v>
@@ -12379,7 +12399,7 @@
       <c r="I273" s="9"/>
       <c r="M273" s="1"/>
     </row>
-    <row r="274" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="1"/>
       <c r="C274" s="9" t="s">
         <v>329</v>
@@ -12402,7 +12422,7 @@
       <c r="I274" s="9"/>
       <c r="M274" s="1"/>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="1"/>
       <c r="C275" s="9" t="s">
         <v>108</v>
@@ -12425,7 +12445,7 @@
       <c r="I275" s="9"/>
       <c r="M275" s="1"/>
     </row>
-    <row r="276" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
       <c r="C276" s="9" t="s">
         <v>108</v>
@@ -12448,7 +12468,7 @@
       <c r="I276" s="9"/>
       <c r="M276" s="1"/>
     </row>
-    <row r="277" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="1"/>
       <c r="C277" s="9" t="s">
         <v>108</v>
@@ -12471,7 +12491,7 @@
       <c r="I277" s="9"/>
       <c r="M277" s="1"/>
     </row>
-    <row r="278" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
       <c r="C278" s="9" t="s">
         <v>108</v>
@@ -12494,7 +12514,7 @@
       <c r="I278" s="9"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1"/>
       <c r="C279" s="9" t="s">
         <v>108</v>
@@ -12519,7 +12539,7 @@
       </c>
       <c r="M279" s="1"/>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
       <c r="C280" s="9" t="s">
         <v>108</v>
@@ -12542,7 +12562,7 @@
       <c r="I280" s="9"/>
       <c r="M280" s="1"/>
     </row>
-    <row r="281" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
       <c r="C281" s="9" t="s">
         <v>108</v>
@@ -12567,7 +12587,7 @@
       </c>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1"/>
       <c r="C282" s="9" t="s">
         <v>108</v>
@@ -12590,7 +12610,7 @@
       <c r="I282" s="9"/>
       <c r="M282" s="1"/>
     </row>
-    <row r="283" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1"/>
       <c r="C283" s="9" t="s">
         <v>108</v>
@@ -12615,7 +12635,7 @@
       </c>
       <c r="M283" s="1"/>
     </row>
-    <row r="284" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="1"/>
       <c r="C284" s="9" t="s">
         <v>332</v>
@@ -12638,7 +12658,7 @@
       <c r="I284" s="9"/>
       <c r="M284" s="1"/>
     </row>
-    <row r="285" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
       <c r="C285" s="9" t="s">
         <v>332</v>
@@ -12661,7 +12681,7 @@
       <c r="I285" s="9"/>
       <c r="M285" s="1"/>
     </row>
-    <row r="286" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="1"/>
       <c r="C286" s="9" t="s">
         <v>332</v>
@@ -12684,7 +12704,7 @@
       <c r="I286" s="9"/>
       <c r="M286" s="1"/>
     </row>
-    <row r="287" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
       <c r="C287" s="9" t="s">
         <v>332</v>
@@ -12707,7 +12727,7 @@
       <c r="I287" s="9"/>
       <c r="M287" s="1"/>
     </row>
-    <row r="288" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="1"/>
       <c r="C288" s="9" t="s">
         <v>332</v>
@@ -12730,7 +12750,7 @@
       <c r="I288" s="9"/>
       <c r="M288" s="1"/>
     </row>
-    <row r="289" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="1"/>
       <c r="C289" s="9" t="s">
         <v>332</v>
@@ -12753,7 +12773,7 @@
       <c r="I289" s="9"/>
       <c r="M289" s="1"/>
     </row>
-    <row r="290" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="1"/>
       <c r="C290" s="9" t="s">
         <v>332</v>
@@ -12776,7 +12796,7 @@
       <c r="I290" s="9"/>
       <c r="M290" s="1"/>
     </row>
-    <row r="291" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
       <c r="C291" s="9" t="s">
         <v>332</v>
@@ -12799,7 +12819,7 @@
       <c r="I291" s="9"/>
       <c r="M291" s="1"/>
     </row>
-    <row r="292" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1"/>
       <c r="C292" s="9" t="s">
         <v>332</v>
@@ -12822,7 +12842,7 @@
       <c r="I292" s="9"/>
       <c r="M292" s="1"/>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="1"/>
       <c r="C293" s="9" t="s">
         <v>518</v>
@@ -12845,7 +12865,7 @@
       <c r="I293" s="9"/>
       <c r="M293" s="1"/>
     </row>
-    <row r="294" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
       <c r="C294" s="9" t="s">
         <v>518</v>
@@ -12868,7 +12888,7 @@
       <c r="I294" s="9"/>
       <c r="M294" s="1"/>
     </row>
-    <row r="295" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="1"/>
       <c r="C295" s="9" t="s">
         <v>518</v>
@@ -12891,7 +12911,7 @@
       <c r="I295" s="9"/>
       <c r="M295" s="1"/>
     </row>
-    <row r="296" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="1"/>
       <c r="C296" s="9" t="s">
         <v>518</v>
@@ -12914,7 +12934,7 @@
       <c r="I296" s="9"/>
       <c r="M296" s="1"/>
     </row>
-    <row r="297" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="1"/>
       <c r="C297" s="9" t="s">
         <v>518</v>
@@ -12937,7 +12957,7 @@
       <c r="I297" s="9"/>
       <c r="M297" s="1"/>
     </row>
-    <row r="298" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1"/>
       <c r="C298" s="9" t="s">
         <v>518</v>
@@ -12960,7 +12980,7 @@
       <c r="I298" s="9"/>
       <c r="M298" s="1"/>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
       <c r="C299" s="9" t="s">
         <v>518</v>
@@ -12983,7 +13003,7 @@
       <c r="I299" s="9"/>
       <c r="M299" s="1"/>
     </row>
-    <row r="300" spans="1:13" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
       <c r="C300" s="9" t="s">
         <v>518</v>
@@ -13006,7 +13026,7 @@
       <c r="I300" s="9"/>
       <c r="M300" s="1"/>
     </row>
-    <row r="301" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1"/>
       <c r="C301" s="9" t="s">
         <v>518</v>
@@ -13029,7 +13049,7 @@
       <c r="I301" s="9"/>
       <c r="M301" s="1"/>
     </row>
-    <row r="302" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="1"/>
       <c r="C302" s="9" t="s">
         <v>518</v>
@@ -13052,7 +13072,7 @@
       <c r="I302" s="9"/>
       <c r="M302" s="1"/>
     </row>
-    <row r="303" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="1"/>
       <c r="C303" s="9" t="s">
         <v>112</v>
@@ -13075,7 +13095,7 @@
       <c r="I303" s="9"/>
       <c r="M303" s="1"/>
     </row>
-    <row r="304" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1"/>
       <c r="C304" s="9" t="s">
         <v>112</v>
@@ -13098,7 +13118,7 @@
       <c r="I304" s="9"/>
       <c r="M304" s="1"/>
     </row>
-    <row r="305" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="1"/>
       <c r="C305" s="9" t="s">
         <v>112</v>
@@ -13121,7 +13141,7 @@
       <c r="I305" s="9"/>
       <c r="M305" s="1"/>
     </row>
-    <row r="306" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="1"/>
       <c r="C306" s="9" t="s">
         <v>112</v>
@@ -13144,7 +13164,7 @@
       <c r="I306" s="9"/>
       <c r="M306" s="1"/>
     </row>
-    <row r="307" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="1"/>
       <c r="C307" s="9" t="s">
         <v>112</v>
@@ -13167,7 +13187,7 @@
       <c r="I307" s="9"/>
       <c r="M307" s="1"/>
     </row>
-    <row r="308" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="1"/>
       <c r="C308" s="9" t="s">
         <v>112</v>
@@ -13190,7 +13210,7 @@
       <c r="I308" s="9"/>
       <c r="M308" s="1"/>
     </row>
-    <row r="309" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1"/>
       <c r="C309" s="9" t="s">
         <v>112</v>
@@ -13213,7 +13233,7 @@
       <c r="I309" s="9"/>
       <c r="M309" s="1"/>
     </row>
-    <row r="310" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="1"/>
       <c r="C310" s="9" t="s">
         <v>112</v>
@@ -13236,7 +13256,7 @@
       <c r="I310" s="9"/>
       <c r="M310" s="1"/>
     </row>
-    <row r="311" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="1"/>
       <c r="C311" s="9" t="s">
         <v>337</v>
@@ -13259,7 +13279,7 @@
       <c r="I311" s="9"/>
       <c r="M311" s="1"/>
     </row>
-    <row r="312" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="1"/>
       <c r="C312" s="9" t="s">
         <v>337</v>
@@ -13282,7 +13302,7 @@
       <c r="I312" s="9"/>
       <c r="M312" s="1"/>
     </row>
-    <row r="313" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1"/>
       <c r="C313" s="9" t="s">
         <v>337</v>
@@ -13305,7 +13325,7 @@
       <c r="I313" s="9"/>
       <c r="M313" s="1"/>
     </row>
-    <row r="314" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="1"/>
       <c r="C314" s="9" t="s">
         <v>337</v>
@@ -13328,7 +13348,7 @@
       <c r="I314" s="9"/>
       <c r="M314" s="1"/>
     </row>
-    <row r="315" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="1"/>
       <c r="C315" s="9" t="s">
         <v>337</v>
@@ -13351,7 +13371,7 @@
       <c r="I315" s="9"/>
       <c r="M315" s="1"/>
     </row>
-    <row r="316" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="1"/>
       <c r="C316" s="9" t="s">
         <v>337</v>
@@ -13374,7 +13394,7 @@
       <c r="I316" s="9"/>
       <c r="M316" s="1"/>
     </row>
-    <row r="317" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="1"/>
       <c r="C317" s="9" t="s">
         <v>337</v>
@@ -13397,7 +13417,7 @@
       <c r="I317" s="9"/>
       <c r="M317" s="1"/>
     </row>
-    <row r="318" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="1"/>
       <c r="C318" s="9" t="s">
         <v>113</v>
@@ -13420,7 +13440,7 @@
       <c r="I318" s="9"/>
       <c r="M318" s="1"/>
     </row>
-    <row r="319" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="1"/>
       <c r="C319" s="9" t="s">
         <v>113</v>
@@ -13443,7 +13463,7 @@
       <c r="I319" s="9"/>
       <c r="M319" s="1"/>
     </row>
-    <row r="320" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1"/>
       <c r="C320" s="9" t="s">
         <v>113</v>
@@ -13466,7 +13486,7 @@
       <c r="I320" s="9"/>
       <c r="M320" s="1"/>
     </row>
-    <row r="321" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="1"/>
       <c r="C321" s="9" t="s">
         <v>113</v>
@@ -13489,7 +13509,7 @@
       <c r="I321" s="9"/>
       <c r="M321" s="1"/>
     </row>
-    <row r="322" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="1"/>
       <c r="C322" s="9" t="s">
         <v>113</v>
@@ -13512,7 +13532,7 @@
       <c r="I322" s="9"/>
       <c r="M322" s="1"/>
     </row>
-    <row r="323" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="1"/>
       <c r="C323" s="9" t="s">
         <v>342</v>
@@ -13535,7 +13555,7 @@
       <c r="I323" s="9"/>
       <c r="M323" s="1"/>
     </row>
-    <row r="324" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1"/>
       <c r="C324" s="9" t="s">
         <v>342</v>
@@ -13558,7 +13578,7 @@
       <c r="I324" s="9"/>
       <c r="M324" s="1"/>
     </row>
-    <row r="325" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="1"/>
       <c r="C325" s="9" t="s">
         <v>342</v>
@@ -13581,7 +13601,7 @@
       <c r="I325" s="9"/>
       <c r="M325" s="1"/>
     </row>
-    <row r="326" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="1"/>
       <c r="C326" s="9" t="s">
         <v>342</v>
@@ -13604,7 +13624,7 @@
       <c r="I326" s="9"/>
       <c r="M326" s="1"/>
     </row>
-    <row r="327" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="1"/>
       <c r="C327" s="9" t="s">
         <v>342</v>
@@ -13629,7 +13649,7 @@
       </c>
       <c r="M327" s="1"/>
     </row>
-    <row r="328" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="1"/>
       <c r="C328" s="9" t="s">
         <v>342</v>
@@ -13654,7 +13674,7 @@
       </c>
       <c r="M328" s="1"/>
     </row>
-    <row r="329" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="1"/>
       <c r="C329" s="9" t="s">
         <v>342</v>
@@ -13677,7 +13697,7 @@
       <c r="I329" s="9"/>
       <c r="M329" s="1"/>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="1"/>
       <c r="C330" s="9" t="s">
         <v>342</v>
@@ -13700,7 +13720,7 @@
       <c r="I330" s="9"/>
       <c r="M330" s="1"/>
     </row>
-    <row r="331" spans="1:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="1"/>
       <c r="C331" s="9" t="s">
         <v>342</v>
@@ -13725,7 +13745,7 @@
       </c>
       <c r="M331" s="1"/>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1"/>
       <c r="C332" s="9" t="s">
         <v>342</v>
@@ -13748,7 +13768,7 @@
       <c r="I332" s="9"/>
       <c r="M332" s="1"/>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1"/>
       <c r="C333" s="9" t="s">
         <v>342</v>
@@ -13771,7 +13791,7 @@
       <c r="I333" s="9"/>
       <c r="M333" s="1"/>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1"/>
       <c r="C334" s="9" t="s">
         <v>342</v>
@@ -13794,7 +13814,7 @@
       <c r="I334" s="9"/>
       <c r="M334" s="1"/>
     </row>
-    <row r="335" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1"/>
       <c r="C335" s="9" t="s">
         <v>342</v>
@@ -13817,7 +13837,7 @@
       <c r="I335" s="9"/>
       <c r="M335" s="1"/>
     </row>
-    <row r="336" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="1"/>
       <c r="C336" s="9" t="s">
         <v>342</v>
@@ -13842,7 +13862,7 @@
       </c>
       <c r="M336" s="1"/>
     </row>
-    <row r="337" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="1"/>
       <c r="C337" s="9" t="s">
         <v>342</v>
@@ -13867,7 +13887,7 @@
       </c>
       <c r="M337" s="1"/>
     </row>
-    <row r="338" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="1"/>
       <c r="C338" s="9" t="s">
         <v>342</v>
@@ -13890,7 +13910,7 @@
       <c r="I338" s="9"/>
       <c r="M338" s="1"/>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="1"/>
       <c r="C339" s="9" t="s">
         <v>342</v>
@@ -13913,7 +13933,7 @@
       <c r="I339" s="9"/>
       <c r="M339" s="1"/>
     </row>
-    <row r="340" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1"/>
       <c r="C340" s="9" t="s">
         <v>342</v>
@@ -13936,7 +13956,7 @@
       <c r="I340" s="9"/>
       <c r="M340" s="1"/>
     </row>
-    <row r="341" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="1"/>
       <c r="C341" s="9" t="s">
         <v>342</v>
@@ -13959,7 +13979,7 @@
       <c r="I341" s="9"/>
       <c r="M341" s="1"/>
     </row>
-    <row r="342" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C342" s="9" t="s">
         <v>342</v>
       </c>
@@ -13981,7 +14001,7 @@
       <c r="I342" s="9"/>
       <c r="M342" s="1"/>
     </row>
-    <row r="343" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C343" s="9" t="s">
         <v>342</v>
       </c>
@@ -14003,7 +14023,7 @@
       <c r="I343" s="9"/>
       <c r="M343" s="1"/>
     </row>
-    <row r="344" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C344" s="9" t="s">
         <v>342</v>
       </c>
@@ -14025,7 +14045,7 @@
       <c r="I344" s="9"/>
       <c r="M344" s="1"/>
     </row>
-    <row r="345" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C345" s="9" t="s">
         <v>41</v>
       </c>
@@ -14049,7 +14069,7 @@
       </c>
       <c r="M345" s="1"/>
     </row>
-    <row r="346" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C346" s="9" t="s">
         <v>88</v>
       </c>
@@ -14071,7 +14091,7 @@
       <c r="I346" s="9"/>
       <c r="M346" s="1"/>
     </row>
-    <row r="347" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="C347" s="9" t="s">
         <v>88</v>
       </c>
@@ -14093,7 +14113,7 @@
       <c r="I347" s="9"/>
       <c r="M347" s="1"/>
     </row>
-    <row r="348" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C348" s="9" t="s">
         <v>95</v>
       </c>
@@ -14117,7 +14137,7 @@
       </c>
       <c r="M348" s="1"/>
     </row>
-    <row r="349" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C349" s="9" t="s">
         <v>100</v>
       </c>
@@ -14139,7 +14159,7 @@
       <c r="I349" s="9"/>
       <c r="M349" s="1"/>
     </row>
-    <row r="350" spans="1:13" ht="123.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.15">
       <c r="C350" s="9" t="s">
         <v>108</v>
       </c>
@@ -14161,7 +14181,7 @@
       <c r="I350" s="9"/>
       <c r="M350" s="1"/>
     </row>
-    <row r="351" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C351" s="9" t="s">
         <v>342</v>
       </c>
@@ -14185,7 +14205,7 @@
       </c>
       <c r="M351" s="1"/>
     </row>
-    <row r="352" spans="1:13" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="C352" s="9" t="s">
         <v>88</v>
       </c>
@@ -14207,7 +14227,7 @@
       <c r="I352" s="9"/>
       <c r="M352" s="1"/>
     </row>
-    <row r="353" spans="3:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C353" s="9" t="s">
         <v>95</v>
       </c>
@@ -14229,7 +14249,7 @@
       <c r="I353" s="9"/>
       <c r="M353" s="1"/>
     </row>
-    <row r="354" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C354" s="9" t="s">
         <v>444</v>
       </c>
@@ -14251,7 +14271,7 @@
       <c r="I354" s="9"/>
       <c r="M354" s="1"/>
     </row>
-    <row r="355" spans="3:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C355" s="9" t="s">
         <v>444</v>
       </c>
@@ -14273,7 +14293,7 @@
       <c r="I355" s="9"/>
       <c r="M355" s="1"/>
     </row>
-    <row r="356" spans="3:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C356" s="9" t="s">
         <v>99</v>
       </c>
@@ -14295,7 +14315,7 @@
       <c r="I356" s="9"/>
       <c r="M356" s="1"/>
     </row>
-    <row r="357" spans="3:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C357" s="9" t="s">
         <v>107</v>
       </c>
@@ -14317,7 +14337,7 @@
       <c r="I357" s="9"/>
       <c r="M357" s="1"/>
     </row>
-    <row r="358" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C358" s="9" t="s">
         <v>108</v>
       </c>
@@ -14339,7 +14359,7 @@
       <c r="I358" s="9"/>
       <c r="M358" s="1"/>
     </row>
-    <row r="359" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C359" s="9" t="s">
         <v>518</v>
       </c>
@@ -14361,7 +14381,7 @@
       <c r="I359" s="9"/>
       <c r="M359" s="1"/>
     </row>
-    <row r="360" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C360" s="9" t="s">
         <v>342</v>
       </c>
@@ -14383,7 +14403,7 @@
       <c r="I360" s="9"/>
       <c r="M360" s="1"/>
     </row>
-    <row r="361" spans="3:13" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:13" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C361" s="9" t="s">
         <v>41</v>
       </c>
@@ -14407,7 +14427,7 @@
       </c>
       <c r="M361" s="1"/>
     </row>
-    <row r="362" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C362" s="9" t="s">
         <v>71</v>
       </c>
@@ -14431,7 +14451,7 @@
       </c>
       <c r="M362" s="1"/>
     </row>
-    <row r="363" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C363" s="9" t="s">
         <v>71</v>
       </c>
@@ -14453,7 +14473,7 @@
       <c r="I363" s="9"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="3:13" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:13" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C364" s="9" t="s">
         <v>71</v>
       </c>
@@ -14477,7 +14497,7 @@
       </c>
       <c r="M364" s="1"/>
     </row>
-    <row r="365" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C365" s="9" t="s">
         <v>71</v>
       </c>
@@ -14499,7 +14519,7 @@
       <c r="I365" s="9"/>
       <c r="M365" s="1"/>
     </row>
-    <row r="366" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C366" s="9" t="s">
         <v>88</v>
       </c>
@@ -14521,7 +14541,7 @@
       <c r="I366" s="9"/>
       <c r="M366" s="1"/>
     </row>
-    <row r="367" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C367" s="9" t="s">
         <v>88</v>
       </c>
@@ -14543,7 +14563,7 @@
       <c r="I367" s="9"/>
       <c r="M367" s="1"/>
     </row>
-    <row r="368" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:13" ht="12" x14ac:dyDescent="0.15">
       <c r="C368" s="9" t="s">
         <v>95</v>
       </c>
@@ -14565,7 +14585,7 @@
       <c r="I368" s="9"/>
       <c r="M368" s="1"/>
     </row>
-    <row r="369" spans="3:13" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:13" ht="84" x14ac:dyDescent="0.15">
       <c r="C369" s="9" t="s">
         <v>95</v>
       </c>
@@ -14587,7 +14607,7 @@
       <c r="I369" s="9"/>
       <c r="M369" s="1"/>
     </row>
-    <row r="370" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:13" ht="12" x14ac:dyDescent="0.15">
       <c r="C370" s="9" t="s">
         <v>95</v>
       </c>
@@ -14609,7 +14629,7 @@
       <c r="I370" s="9"/>
       <c r="M370" s="1"/>
     </row>
-    <row r="371" spans="3:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:13" ht="24" x14ac:dyDescent="0.15">
       <c r="C371" s="9" t="s">
         <v>95</v>
       </c>
@@ -14631,7 +14651,7 @@
       <c r="I371" s="9"/>
       <c r="M371" s="1"/>
     </row>
-    <row r="372" spans="3:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:13" ht="24" x14ac:dyDescent="0.15">
       <c r="C372" s="9" t="s">
         <v>95</v>
       </c>
@@ -14653,7 +14673,7 @@
       <c r="I372" s="9"/>
       <c r="M372" s="1"/>
     </row>
-    <row r="373" spans="3:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:13" ht="72" x14ac:dyDescent="0.15">
       <c r="C373" s="9" t="s">
         <v>95</v>
       </c>
@@ -14675,7 +14695,7 @@
       <c r="I373" s="9"/>
       <c r="M373" s="1"/>
     </row>
-    <row r="374" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C374" s="9" t="s">
         <v>328</v>
       </c>
@@ -14697,7 +14717,7 @@
       <c r="I374" s="9"/>
       <c r="M374" s="1"/>
     </row>
-    <row r="375" spans="3:13" ht="281.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:13" ht="306" hidden="1" x14ac:dyDescent="0.15">
       <c r="C375" s="9" t="s">
         <v>328</v>
       </c>
@@ -14718,7 +14738,7 @@
       </c>
       <c r="I375" s="9"/>
     </row>
-    <row r="376" spans="3:13" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C376" s="9" t="s">
         <v>328</v>
       </c>
@@ -14739,7 +14759,7 @@
       </c>
       <c r="I376" s="9"/>
     </row>
-    <row r="377" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C377" s="9" t="s">
         <v>328</v>
       </c>
@@ -14760,7 +14780,7 @@
       </c>
       <c r="I377" s="9"/>
     </row>
-    <row r="378" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C378" s="9" t="s">
         <v>717</v>
       </c>
@@ -14781,7 +14801,7 @@
       </c>
       <c r="I378" s="9"/>
     </row>
-    <row r="379" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C379" s="9" t="s">
         <v>717</v>
       </c>
@@ -14802,7 +14822,7 @@
       </c>
       <c r="I379" s="9"/>
     </row>
-    <row r="380" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C380" s="9" t="s">
         <v>444</v>
       </c>
@@ -14823,7 +14843,7 @@
       </c>
       <c r="I380" s="9"/>
     </row>
-    <row r="381" spans="3:13" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:13" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C381" s="9" t="s">
         <v>444</v>
       </c>
@@ -14846,7 +14866,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="382" spans="3:13" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:13" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C382" s="9" t="s">
         <v>444</v>
       </c>
@@ -14867,7 +14887,7 @@
       </c>
       <c r="I382" s="9"/>
     </row>
-    <row r="383" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:13" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="C383" s="9" t="s">
         <v>444</v>
       </c>
@@ -14890,7 +14910,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="384" spans="3:13" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:13" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C384" s="9" t="s">
         <v>444</v>
       </c>
@@ -14911,7 +14931,7 @@
       </c>
       <c r="I384" s="9"/>
     </row>
-    <row r="385" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C385" s="9" t="s">
         <v>718</v>
       </c>
@@ -14932,7 +14952,7 @@
       </c>
       <c r="I385" s="9"/>
     </row>
-    <row r="386" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C386" s="9" t="s">
         <v>718</v>
       </c>
@@ -14953,7 +14973,7 @@
       </c>
       <c r="I386" s="9"/>
     </row>
-    <row r="387" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C387" s="9" t="s">
         <v>691</v>
       </c>
@@ -14974,7 +14994,7 @@
       </c>
       <c r="I387" s="9"/>
     </row>
-    <row r="388" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C388" s="9" t="s">
         <v>691</v>
       </c>
@@ -14995,7 +15015,7 @@
       </c>
       <c r="I388" s="9"/>
     </row>
-    <row r="389" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C389" s="9" t="s">
         <v>99</v>
       </c>
@@ -15016,7 +15036,7 @@
       </c>
       <c r="I389" s="9"/>
     </row>
-    <row r="390" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C390" s="9" t="s">
         <v>99</v>
       </c>
@@ -15037,7 +15057,7 @@
       </c>
       <c r="I390" s="9"/>
     </row>
-    <row r="391" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C391" s="9" t="s">
         <v>99</v>
       </c>
@@ -15058,7 +15078,7 @@
       </c>
       <c r="I391" s="9"/>
     </row>
-    <row r="392" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C392" s="9" t="s">
         <v>99</v>
       </c>
@@ -15079,7 +15099,7 @@
       </c>
       <c r="I392" s="9"/>
     </row>
-    <row r="393" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C393" s="9" t="s">
         <v>100</v>
       </c>
@@ -15100,7 +15120,7 @@
       </c>
       <c r="I393" s="9"/>
     </row>
-    <row r="394" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C394" s="9" t="s">
         <v>100</v>
       </c>
@@ -15121,7 +15141,7 @@
       </c>
       <c r="I394" s="9"/>
     </row>
-    <row r="395" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C395" s="9" t="s">
         <v>107</v>
       </c>
@@ -15142,7 +15162,7 @@
       </c>
       <c r="I395" s="9"/>
     </row>
-    <row r="396" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C396" s="9" t="s">
         <v>107</v>
       </c>
@@ -15163,7 +15183,7 @@
       </c>
       <c r="I396" s="9"/>
     </row>
-    <row r="397" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C397" s="9" t="s">
         <v>107</v>
       </c>
@@ -15184,7 +15204,7 @@
       </c>
       <c r="I397" s="9"/>
     </row>
-    <row r="398" spans="3:9" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C398" s="9" t="s">
         <v>107</v>
       </c>
@@ -15205,7 +15225,7 @@
       </c>
       <c r="I398" s="9"/>
     </row>
-    <row r="399" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C399" s="9" t="s">
         <v>329</v>
       </c>
@@ -15226,7 +15246,7 @@
       </c>
       <c r="I399" s="9"/>
     </row>
-    <row r="400" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C400" s="9" t="s">
         <v>329</v>
       </c>
@@ -15247,7 +15267,7 @@
       </c>
       <c r="I400" s="9"/>
     </row>
-    <row r="401" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C401" s="9" t="s">
         <v>719</v>
       </c>
@@ -15268,7 +15288,7 @@
       </c>
       <c r="I401" s="9"/>
     </row>
-    <row r="402" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C402" s="9" t="s">
         <v>719</v>
       </c>
@@ -15289,7 +15309,7 @@
       </c>
       <c r="I402" s="9"/>
     </row>
-    <row r="403" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C403" s="9" t="s">
         <v>108</v>
       </c>
@@ -15310,7 +15330,7 @@
       </c>
       <c r="I403" s="9"/>
     </row>
-    <row r="404" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C404" s="9" t="s">
         <v>108</v>
       </c>
@@ -15331,7 +15351,7 @@
       </c>
       <c r="I404" s="9"/>
     </row>
-    <row r="405" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C405" s="9" t="s">
         <v>108</v>
       </c>
@@ -15352,7 +15372,7 @@
       </c>
       <c r="I405" s="9"/>
     </row>
-    <row r="406" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C406" s="9" t="s">
         <v>108</v>
       </c>
@@ -15373,7 +15393,7 @@
       </c>
       <c r="I406" s="9"/>
     </row>
-    <row r="407" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C407" s="9" t="s">
         <v>720</v>
       </c>
@@ -15394,7 +15414,7 @@
       </c>
       <c r="I407" s="9"/>
     </row>
-    <row r="408" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C408" s="9" t="s">
         <v>720</v>
       </c>
@@ -15415,7 +15435,7 @@
       </c>
       <c r="I408" s="9"/>
     </row>
-    <row r="409" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C409" s="9" t="s">
         <v>721</v>
       </c>
@@ -15436,7 +15456,7 @@
       </c>
       <c r="I409" s="9"/>
     </row>
-    <row r="410" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C410" s="9" t="s">
         <v>721</v>
       </c>
@@ -15457,7 +15477,7 @@
       </c>
       <c r="I410" s="9"/>
     </row>
-    <row r="411" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C411" s="9" t="s">
         <v>693</v>
       </c>
@@ -15478,7 +15498,7 @@
       </c>
       <c r="I411" s="9"/>
     </row>
-    <row r="412" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C412" s="9" t="s">
         <v>693</v>
       </c>
@@ -15499,7 +15519,7 @@
       </c>
       <c r="I412" s="9"/>
     </row>
-    <row r="413" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C413" s="9" t="s">
         <v>332</v>
       </c>
@@ -15520,7 +15540,7 @@
       </c>
       <c r="I413" s="9"/>
     </row>
-    <row r="414" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C414" s="9" t="s">
         <v>332</v>
       </c>
@@ -15541,7 +15561,7 @@
       </c>
       <c r="I414" s="9"/>
     </row>
-    <row r="415" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C415" s="9" t="s">
         <v>722</v>
       </c>
@@ -15562,7 +15582,7 @@
       </c>
       <c r="I415" s="9"/>
     </row>
-    <row r="416" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C416" s="9" t="s">
         <v>722</v>
       </c>
@@ -15583,7 +15603,7 @@
       </c>
       <c r="I416" s="9"/>
     </row>
-    <row r="417" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C417" s="9" t="s">
         <v>723</v>
       </c>
@@ -15604,7 +15624,7 @@
       </c>
       <c r="I417" s="9"/>
     </row>
-    <row r="418" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C418" s="9" t="s">
         <v>723</v>
       </c>
@@ -15625,7 +15645,7 @@
       </c>
       <c r="I418" s="9"/>
     </row>
-    <row r="419" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C419" s="9" t="s">
         <v>518</v>
       </c>
@@ -15646,7 +15666,7 @@
       </c>
       <c r="I419" s="9"/>
     </row>
-    <row r="420" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C420" s="9" t="s">
         <v>518</v>
       </c>
@@ -15667,7 +15687,7 @@
       </c>
       <c r="I420" s="9"/>
     </row>
-    <row r="421" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C421" s="9" t="s">
         <v>518</v>
       </c>
@@ -15688,7 +15708,7 @@
       </c>
       <c r="I421" s="9"/>
     </row>
-    <row r="422" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C422" s="9" t="s">
         <v>518</v>
       </c>
@@ -15709,7 +15729,7 @@
       </c>
       <c r="I422" s="9"/>
     </row>
-    <row r="423" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C423" s="9" t="s">
         <v>724</v>
       </c>
@@ -15730,7 +15750,7 @@
       </c>
       <c r="I423" s="9"/>
     </row>
-    <row r="424" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C424" s="9" t="s">
         <v>724</v>
       </c>
@@ -15751,7 +15771,7 @@
       </c>
       <c r="I424" s="9"/>
     </row>
-    <row r="425" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C425" s="9" t="s">
         <v>725</v>
       </c>
@@ -15772,7 +15792,7 @@
       </c>
       <c r="I425" s="9"/>
     </row>
-    <row r="426" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C426" s="9" t="s">
         <v>725</v>
       </c>
@@ -15793,7 +15813,7 @@
       </c>
       <c r="I426" s="9"/>
     </row>
-    <row r="427" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C427" s="9" t="s">
         <v>112</v>
       </c>
@@ -15814,7 +15834,7 @@
       </c>
       <c r="I427" s="9"/>
     </row>
-    <row r="428" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C428" s="9" t="s">
         <v>112</v>
       </c>
@@ -15835,7 +15855,7 @@
       </c>
       <c r="I428" s="9"/>
     </row>
-    <row r="429" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C429" s="9" t="s">
         <v>337</v>
       </c>
@@ -15856,7 +15876,7 @@
       </c>
       <c r="I429" s="9"/>
     </row>
-    <row r="430" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C430" s="9" t="s">
         <v>337</v>
       </c>
@@ -15877,7 +15897,7 @@
       </c>
       <c r="I430" s="9"/>
     </row>
-    <row r="431" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C431" s="9" t="s">
         <v>113</v>
       </c>
@@ -15898,7 +15918,7 @@
       </c>
       <c r="I431" s="9"/>
     </row>
-    <row r="432" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:9" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="C432" s="9" t="s">
         <v>113</v>
       </c>
@@ -15919,7 +15939,7 @@
       </c>
       <c r="I432" s="9"/>
     </row>
-    <row r="433" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C433" s="9" t="s">
         <v>726</v>
       </c>
@@ -15940,7 +15960,7 @@
       </c>
       <c r="I433" s="9"/>
     </row>
-    <row r="434" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C434" s="9" t="s">
         <v>726</v>
       </c>
@@ -15961,7 +15981,7 @@
       </c>
       <c r="I434" s="9"/>
     </row>
-    <row r="435" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C435" s="9" t="s">
         <v>727</v>
       </c>
@@ -15982,7 +16002,7 @@
       </c>
       <c r="I435" s="9"/>
     </row>
-    <row r="436" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C436" s="9" t="s">
         <v>727</v>
       </c>
@@ -16003,7 +16023,7 @@
       </c>
       <c r="I436" s="9"/>
     </row>
-    <row r="437" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C437" s="9" t="s">
         <v>692</v>
       </c>
@@ -16024,7 +16044,7 @@
       </c>
       <c r="I437" s="9"/>
     </row>
-    <row r="438" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C438" s="9" t="s">
         <v>692</v>
       </c>
@@ -16045,7 +16065,7 @@
       </c>
       <c r="I438" s="9"/>
     </row>
-    <row r="439" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C439" s="9" t="s">
         <v>728</v>
       </c>
@@ -16066,7 +16086,7 @@
       </c>
       <c r="I439" s="9"/>
     </row>
-    <row r="440" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C440" s="9" t="s">
         <v>728</v>
       </c>
@@ -16087,7 +16107,7 @@
       </c>
       <c r="I440" s="9"/>
     </row>
-    <row r="441" spans="3:9" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:9" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="C441" s="9" t="s">
         <v>342</v>
       </c>
@@ -16108,7 +16128,7 @@
       </c>
       <c r="I441" s="9"/>
     </row>
-    <row r="442" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C442" s="9" t="s">
         <v>342</v>
       </c>
@@ -16129,7 +16149,7 @@
       </c>
       <c r="I442" s="9"/>
     </row>
-    <row r="443" spans="3:9" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:9" ht="48" hidden="1" x14ac:dyDescent="0.15">
       <c r="C443" s="9" t="s">
         <v>342</v>
       </c>
@@ -16152,7 +16172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="444" spans="3:9" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:9" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C444" s="9" t="s">
         <v>342</v>
       </c>
@@ -16173,7 +16193,7 @@
       </c>
       <c r="I444" s="9"/>
     </row>
-    <row r="445" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C445" s="9" t="s">
         <v>342</v>
       </c>
@@ -16194,7 +16214,7 @@
       </c>
       <c r="I445" s="9"/>
     </row>
-    <row r="446" spans="3:9" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:9" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="C446" s="9" t="s">
         <v>41</v>
       </c>
@@ -16215,7 +16235,7 @@
       </c>
       <c r="I446" s="9"/>
     </row>
-    <row r="447" spans="3:9" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:9" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="C447" s="9" t="s">
         <v>71</v>
       </c>
@@ -16236,7 +16256,7 @@
       </c>
       <c r="I447" s="9"/>
     </row>
-    <row r="448" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:9" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="C448" s="9" t="s">
         <v>95</v>
       </c>
@@ -16257,7 +16277,7 @@
       </c>
       <c r="I448" s="9"/>
     </row>
-    <row r="449" spans="3:9" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:9" ht="72" hidden="1" x14ac:dyDescent="0.15">
       <c r="C449" s="9" t="s">
         <v>100</v>
       </c>
@@ -16280,7 +16300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="450" spans="3:9" ht="112.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:9" ht="120" hidden="1" x14ac:dyDescent="0.15">
       <c r="C450" s="9" t="s">
         <v>108</v>
       </c>
@@ -16301,7 +16321,7 @@
       </c>
       <c r="I450" s="9"/>
     </row>
-    <row r="451" spans="3:9" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:9" ht="36" hidden="1" x14ac:dyDescent="0.15">
       <c r="C451" s="9" t="s">
         <v>342</v>
       </c>
@@ -16322,7 +16342,7 @@
       </c>
       <c r="I451" s="9"/>
     </row>
-    <row r="452" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C452" s="9"/>
       <c r="D452" s="9"/>
       <c r="E452" s="9"/>
@@ -16331,7 +16351,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
     </row>
-    <row r="453" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C453" s="9"/>
       <c r="D453" s="9"/>
       <c r="E453" s="9"/>
@@ -16340,7 +16360,7 @@
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
     </row>
-    <row r="454" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C454" s="9"/>
       <c r="D454" s="9"/>
       <c r="E454" s="9"/>
@@ -16349,7 +16369,7 @@
       <c r="H454" s="9"/>
       <c r="I454" s="9"/>
     </row>
-    <row r="455" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C455" s="9"/>
       <c r="D455" s="9"/>
       <c r="E455" s="9"/>
@@ -16358,7 +16378,7 @@
       <c r="H455" s="9"/>
       <c r="I455" s="9"/>
     </row>
-    <row r="456" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C456" s="9"/>
       <c r="D456" s="9"/>
       <c r="E456" s="9"/>
@@ -16367,7 +16387,7 @@
       <c r="H456" s="9"/>
       <c r="I456" s="9"/>
     </row>
-    <row r="457" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C457" s="9"/>
       <c r="D457" s="9"/>
       <c r="E457" s="9"/>
@@ -16376,7 +16396,7 @@
       <c r="H457" s="9"/>
       <c r="I457" s="9"/>
     </row>
-    <row r="458" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C458" s="9"/>
       <c r="D458" s="9"/>
       <c r="E458" s="9"/>
@@ -16385,7 +16405,7 @@
       <c r="H458" s="9"/>
       <c r="I458" s="9"/>
     </row>
-    <row r="459" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C459" s="9"/>
       <c r="D459" s="9"/>
       <c r="E459" s="9"/>
@@ -16394,7 +16414,7 @@
       <c r="H459" s="9"/>
       <c r="I459" s="9"/>
     </row>
-    <row r="460" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C460" s="9"/>
       <c r="D460" s="9"/>
       <c r="E460" s="9"/>
@@ -16403,7 +16423,7 @@
       <c r="H460" s="9"/>
       <c r="I460" s="9"/>
     </row>
-    <row r="461" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C461" s="9"/>
       <c r="D461" s="9"/>
       <c r="E461" s="9"/>
@@ -16412,7 +16432,7 @@
       <c r="H461" s="9"/>
       <c r="I461" s="9"/>
     </row>
-    <row r="462" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C462" s="9"/>
       <c r="D462" s="9"/>
       <c r="E462" s="9"/>
@@ -16421,7 +16441,7 @@
       <c r="H462" s="9"/>
       <c r="I462" s="9"/>
     </row>
-    <row r="463" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C463" s="9"/>
       <c r="D463" s="9"/>
       <c r="E463" s="9"/>
@@ -16430,7 +16450,7 @@
       <c r="H463" s="9"/>
       <c r="I463" s="9"/>
     </row>
-    <row r="464" spans="3:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C464" s="9"/>
       <c r="D464" s="9"/>
       <c r="E464" s="9"/>
@@ -16439,7 +16459,7 @@
       <c r="H464" s="9"/>
       <c r="I464" s="9"/>
     </row>
-    <row r="465" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C465" s="9"/>
       <c r="D465" s="9"/>
       <c r="E465" s="9"/>
@@ -16448,7 +16468,7 @@
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
     </row>
-    <row r="466" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C466" s="9"/>
       <c r="D466" s="9"/>
       <c r="E466" s="9"/>
@@ -16457,7 +16477,7 @@
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
     </row>
-    <row r="467" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C467" s="9"/>
       <c r="D467" s="9"/>
       <c r="E467" s="9"/>
@@ -16466,7 +16486,7 @@
       <c r="H467" s="9"/>
       <c r="I467" s="9"/>
     </row>
-    <row r="468" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C468" s="9"/>
       <c r="D468" s="9"/>
       <c r="E468" s="9"/>
@@ -16502,21 +16522,21 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16527,7 +16547,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
         <v>674</v>
@@ -16540,7 +16560,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16551,30 +16571,30 @@
       <c r="H3" s="7"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -16588,7 +16608,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
@@ -16599,7 +16619,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -16610,7 +16630,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
@@ -16621,7 +16641,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -16632,7 +16652,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -16643,7 +16663,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -16654,7 +16674,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
@@ -16665,7 +16685,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
@@ -16676,7 +16696,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
@@ -16687,7 +16707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
@@ -16698,7 +16718,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
         <v>675</v>
       </c>
@@ -16709,7 +16729,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
@@ -16720,7 +16740,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C23" s="3" t="s">
         <v>55</v>
       </c>
@@ -16731,7 +16751,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C24" s="3" t="s">
         <v>658</v>
       </c>
@@ -16742,7 +16762,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C25" s="3" t="s">
         <v>658</v>
       </c>
@@ -16763,6 +16783,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAF776E78A7DE141B3B0D5ECA7F15D05" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8253847740dfa393b9c7ceda89d29c96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ea19390-7bd6-43b9-9712-9472f7a8ec0a" xmlns:ns4="7e34ab26-1d54-4b8d-8b0b-de23d21e1ab3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f4d375eac3529eea58d7b2df84d6787" ns3:_="" ns4:_="">
     <xsd:import namespace="6ea19390-7bd6-43b9-9712-9472f7a8ec0a"/>
@@ -16985,26 +17024,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F080F85-595B-4A8B-ADF5-CB4664DF3B9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19F5139-A135-4696-93A0-7DA6288FE277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6ea19390-7bd6-43b9-9712-9472f7a8ec0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e34ab26-1d54-4b8d-8b0b-de23d21e1ab3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F35D08-1D85-4EEE-9D33-18B52CF301BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B441CC97-F6EA-40FB-81E6-2D1497FF8E66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17021,37 +17074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F35D08-1D85-4EEE-9D33-18B52CF301BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19F5139-A135-4696-93A0-7DA6288FE277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6ea19390-7bd6-43b9-9712-9472f7a8ec0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e34ab26-1d54-4b8d-8b0b-de23d21e1ab3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F080F85-595B-4A8B-ADF5-CB4664DF3B9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>